--- a/files/samples/CLASS 1-4 PT-1.xlsx
+++ b/files/samples/CLASS 1-4 PT-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="14805" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +877,8 @@
         <v>20</v>
       </c>
       <c r="H7" s="15">
-        <f>C7+D7+E7+F7</f>
-        <v>50</v>
+        <f>C7+D7+E7+F7+G7</f>
+        <v>70</v>
       </c>
       <c r="I7" s="15">
         <v>150</v>
@@ -918,8 +918,8 @@
         <v>17</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8</f>
-        <v>38</v>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
+        <v>55</v>
       </c>
       <c r="I8" s="21">
         <v>120</v>
@@ -959,8 +959,8 @@
         <v>18</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>SUMIF(C9:G9,"&lt;&gt;#AB")</f>
+        <v>61</v>
       </c>
       <c r="I9" s="13">
         <v>125</v>
@@ -1000,8 +1000,8 @@
         <v>15</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f t="shared" ref="H10:H56" si="0">SUMIF(C10:G10,"&lt;&gt;#AB")</f>
+        <v>54</v>
       </c>
       <c r="I10" s="13">
         <v>148</v>
